--- a/database/industries/siman/sekhash/product/yearly_seprated.xlsx
+++ b/database/industries/siman/sekhash/product/yearly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhash\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D61586-7934-49D0-9017-3D896FAE18A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95D6538-9DDD-4FDB-9ACA-5F986AB59970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/database/industries/siman/sekhash/product/yearly_seprated.xlsx
+++ b/database/industries/siman/sekhash/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhash\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A83936-7D8F-45A7-8080-B6E96F59493A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1804505-15D2-4A43-ACAF-ED4119A674C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -679,12 +679,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -694,7 +694,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -728,7 +728,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -762,7 +762,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -794,7 +794,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -817,20 +817,20 @@
       <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
+      <c r="F11" s="11">
+        <v>6957</v>
       </c>
       <c r="G11" s="11">
-        <v>6957</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -847,14 +847,14 @@
       <c r="G12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
+      <c r="H12" s="13">
+        <v>233457</v>
       </c>
       <c r="I12" s="13">
-        <v>233457</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>258093</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -862,23 +862,23 @@
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>277672</v>
       </c>
       <c r="F13" s="11">
-        <v>277672</v>
+        <v>216186</v>
       </c>
       <c r="G13" s="11">
-        <v>216186</v>
-      </c>
-      <c r="H13" s="11">
         <v>295890</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -886,23 +886,23 @@
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>438329</v>
       </c>
       <c r="F14" s="13">
-        <v>438329</v>
+        <v>500635</v>
       </c>
       <c r="G14" s="13">
-        <v>500635</v>
-      </c>
-      <c r="H14" s="13">
         <v>619707</v>
       </c>
+      <c r="H14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -919,14 +919,14 @@
       <c r="G15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+      <c r="H15" s="11">
+        <v>222712</v>
       </c>
       <c r="I15" s="11">
-        <v>222712</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>213457</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -943,14 +943,14 @@
       <c r="G16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>13</v>
+      <c r="H16" s="13">
+        <v>75951</v>
       </c>
       <c r="I16" s="13">
-        <v>75951</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>72377</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -967,14 +967,14 @@
       <c r="G17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>13</v>
+      <c r="H17" s="11">
+        <v>262183</v>
       </c>
       <c r="I17" s="11">
-        <v>262183</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>267162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -982,23 +982,23 @@
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
+      <c r="E18" s="13">
+        <v>1730</v>
       </c>
       <c r="F18" s="13">
-        <v>1730</v>
+        <v>1022</v>
       </c>
       <c r="G18" s="13">
-        <v>1022</v>
+        <v>1285</v>
       </c>
       <c r="H18" s="13">
-        <v>1285</v>
+        <v>362</v>
       </c>
       <c r="I18" s="13">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1012,17 +1012,17 @@
       <c r="F19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>13</v>
+      <c r="G19" s="11">
+        <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="I19" s="11">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1036,17 +1036,17 @@
       <c r="F20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
+      <c r="G20" s="13">
+        <v>0</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
       </c>
-      <c r="I20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1054,12 +1054,12 @@
         <v>12</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="11">
         <v>26003</v>
       </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G21" s="11" t="s">
         <v>13</v>
       </c>
@@ -1070,29 +1070,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15">
-        <v>0</v>
+        <v>743734</v>
       </c>
       <c r="F22" s="15">
-        <v>743734</v>
+        <v>724800</v>
       </c>
       <c r="G22" s="15">
-        <v>724800</v>
+        <v>916882</v>
       </c>
       <c r="H22" s="15">
-        <v>916882</v>
+        <v>794962</v>
       </c>
       <c r="I22" s="15">
-        <v>794962</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>811585</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
@@ -1115,20 +1115,20 @@
       <c r="E24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>13</v>
+      <c r="F24" s="11">
+        <v>5901</v>
       </c>
       <c r="G24" s="11">
-        <v>5901</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>16</v>
       </c>
@@ -1136,23 +1136,23 @@
         <v>12</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>13</v>
+      <c r="E25" s="13">
+        <v>74076</v>
       </c>
       <c r="F25" s="13">
-        <v>74076</v>
+        <v>59414</v>
       </c>
       <c r="G25" s="13">
-        <v>59414</v>
-      </c>
-      <c r="H25" s="13">
         <v>28032</v>
       </c>
+      <c r="H25" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I25" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>17</v>
       </c>
@@ -1169,14 +1169,14 @@
       <c r="G26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>13</v>
+      <c r="H26" s="11">
+        <v>657</v>
       </c>
       <c r="I26" s="11">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>19</v>
       </c>
@@ -1193,14 +1193,14 @@
       <c r="G27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>13</v>
+      <c r="H27" s="13">
+        <v>22</v>
       </c>
       <c r="I27" s="13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1208,23 +1208,23 @@
         <v>12</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
-        <v>13</v>
+      <c r="E28" s="11">
+        <v>47045</v>
       </c>
       <c r="F28" s="11">
-        <v>47045</v>
+        <v>73047</v>
       </c>
       <c r="G28" s="11">
-        <v>73047</v>
-      </c>
-      <c r="H28" s="11">
         <v>109582</v>
       </c>
+      <c r="H28" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I28" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>27</v>
       </c>
@@ -1241,14 +1241,14 @@
       <c r="G29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>13</v>
+      <c r="H29" s="13">
+        <v>1744</v>
       </c>
       <c r="I29" s="13">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
@@ -1265,14 +1265,14 @@
       <c r="G30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>29</v>
       </c>
@@ -1280,45 +1280,45 @@
         <v>12</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
-        <v>13</v>
+      <c r="E31" s="13">
+        <v>236</v>
       </c>
       <c r="F31" s="13">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
       </c>
-      <c r="H31" s="13">
-        <v>0</v>
+      <c r="H31" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17">
-        <v>0</v>
+        <v>121357</v>
       </c>
       <c r="F32" s="17">
-        <v>121357</v>
+        <v>138362</v>
       </c>
       <c r="G32" s="17">
-        <v>138362</v>
+        <v>137614</v>
       </c>
       <c r="H32" s="17">
-        <v>137614</v>
+        <v>2423</v>
       </c>
       <c r="I32" s="17">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
@@ -1352,14 +1352,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
-        <v>13</v>
+      <c r="E35" s="15">
+        <v>0</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
@@ -1367,21 +1367,21 @@
       <c r="G35" s="15">
         <v>0</v>
       </c>
-      <c r="H35" s="15">
-        <v>0</v>
+      <c r="H35" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="17" t="s">
-        <v>13</v>
+      <c r="E36" s="17">
+        <v>0</v>
       </c>
       <c r="F36" s="17">
         <v>0</v>
@@ -1396,29 +1396,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>0</v>
+        <v>865091</v>
       </c>
       <c r="F37" s="15">
-        <v>865091</v>
+        <v>863162</v>
       </c>
       <c r="G37" s="15">
-        <v>863162</v>
+        <v>1054496</v>
       </c>
       <c r="H37" s="15">
-        <v>1054496</v>
+        <v>797385</v>
       </c>
       <c r="I37" s="15">
-        <v>797385</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>821608</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1428,7 +1428,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1438,7 +1438,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1448,7 +1448,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>36</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>37</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>11</v>
       </c>
@@ -1503,20 +1503,20 @@
       <c r="E44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
+      <c r="F44" s="11">
+        <v>8370</v>
       </c>
       <c r="G44" s="11">
-        <v>8370</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>14</v>
       </c>
@@ -1533,14 +1533,14 @@
       <c r="G45" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>13</v>
+      <c r="H45" s="13">
+        <v>1129218</v>
       </c>
       <c r="I45" s="13">
-        <v>1129218</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1946078</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
@@ -1548,23 +1548,23 @@
         <v>38</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
+      <c r="E46" s="11">
+        <v>338429</v>
       </c>
       <c r="F46" s="11">
-        <v>338429</v>
+        <v>337541</v>
       </c>
       <c r="G46" s="11">
-        <v>337541</v>
-      </c>
-      <c r="H46" s="11">
         <v>610091</v>
       </c>
+      <c r="H46" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I46" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>16</v>
       </c>
@@ -1572,23 +1572,23 @@
         <v>38</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>13</v>
+      <c r="E47" s="13">
+        <v>635296</v>
       </c>
       <c r="F47" s="13">
-        <v>635296</v>
+        <v>974971</v>
       </c>
       <c r="G47" s="13">
-        <v>974971</v>
-      </c>
-      <c r="H47" s="13">
         <v>1633773</v>
       </c>
+      <c r="H47" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I47" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>17</v>
       </c>
@@ -1605,14 +1605,14 @@
       <c r="G48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>13</v>
+      <c r="H48" s="11">
+        <v>1145470</v>
       </c>
       <c r="I48" s="11">
-        <v>1145470</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1492218</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
@@ -1629,14 +1629,14 @@
       <c r="G49" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>13</v>
+      <c r="H49" s="13">
+        <v>302610</v>
       </c>
       <c r="I49" s="13">
-        <v>302610</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>417355</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>19</v>
       </c>
@@ -1653,14 +1653,14 @@
       <c r="G50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>13</v>
+      <c r="H50" s="11">
+        <v>1512242</v>
       </c>
       <c r="I50" s="11">
-        <v>1512242</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1971230</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>20</v>
       </c>
@@ -1668,23 +1668,23 @@
         <v>38</v>
       </c>
       <c r="D51" s="13"/>
-      <c r="E51" s="13" t="s">
-        <v>13</v>
+      <c r="E51" s="13">
+        <v>1201</v>
       </c>
       <c r="F51" s="13">
-        <v>1201</v>
+        <v>841</v>
       </c>
       <c r="G51" s="13">
-        <v>841</v>
+        <v>1456</v>
       </c>
       <c r="H51" s="13">
-        <v>1456</v>
+        <v>967</v>
       </c>
       <c r="I51" s="13">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>21</v>
       </c>
@@ -1698,17 +1698,17 @@
       <c r="F52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>13</v>
+      <c r="G52" s="11">
+        <v>0</v>
       </c>
       <c r="H52" s="11">
-        <v>0</v>
+        <v>4755</v>
       </c>
       <c r="I52" s="11">
-        <v>4755</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7428</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>22</v>
       </c>
@@ -1722,17 +1722,17 @@
       <c r="F53" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>13</v>
+      <c r="G53" s="13">
+        <v>0</v>
       </c>
       <c r="H53" s="13">
         <v>0</v>
       </c>
-      <c r="I53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>23</v>
       </c>
@@ -1740,12 +1740,12 @@
         <v>38</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="11">
+      <c r="E54" s="11">
         <v>27302</v>
       </c>
+      <c r="F54" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G54" s="11" t="s">
         <v>13</v>
       </c>
@@ -1756,29 +1756,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>0</v>
+        <v>1002228</v>
       </c>
       <c r="F55" s="15">
-        <v>1002228</v>
+        <v>1321723</v>
       </c>
       <c r="G55" s="15">
-        <v>1321723</v>
+        <v>2245320</v>
       </c>
       <c r="H55" s="15">
-        <v>2245320</v>
+        <v>4095262</v>
       </c>
       <c r="I55" s="15">
-        <v>4095262</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5835327</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1801,20 +1801,20 @@
       <c r="E57" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>13</v>
+      <c r="F57" s="11">
+        <v>10645</v>
       </c>
       <c r="G57" s="11">
-        <v>10645</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>16</v>
       </c>
@@ -1822,23 +1822,23 @@
         <v>38</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="13" t="s">
-        <v>13</v>
+      <c r="E58" s="13">
+        <v>82050</v>
       </c>
       <c r="F58" s="13">
-        <v>82050</v>
+        <v>129210</v>
       </c>
       <c r="G58" s="13">
-        <v>129210</v>
-      </c>
-      <c r="H58" s="13">
         <v>80339</v>
       </c>
+      <c r="H58" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I58" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>17</v>
       </c>
@@ -1855,14 +1855,14 @@
       <c r="G59" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>13</v>
+      <c r="H59" s="11">
+        <v>2566</v>
       </c>
       <c r="I59" s="11">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>19</v>
       </c>
@@ -1879,14 +1879,14 @@
       <c r="G60" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>13</v>
+      <c r="H60" s="13">
+        <v>57</v>
       </c>
       <c r="I60" s="13">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>132838</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>26</v>
       </c>
@@ -1894,23 +1894,23 @@
         <v>38</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
+      <c r="E61" s="11">
+        <v>40814</v>
       </c>
       <c r="F61" s="11">
-        <v>40814</v>
+        <v>101961</v>
       </c>
       <c r="G61" s="11">
-        <v>101961</v>
-      </c>
-      <c r="H61" s="11">
         <v>378123</v>
       </c>
+      <c r="H61" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I61" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>27</v>
       </c>
@@ -1927,14 +1927,14 @@
       <c r="G62" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>13</v>
+      <c r="H62" s="13">
+        <v>8718</v>
       </c>
       <c r="I62" s="13">
-        <v>8718</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>28</v>
       </c>
@@ -1951,14 +1951,14 @@
       <c r="G63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>29</v>
       </c>
@@ -1966,45 +1966,45 @@
         <v>38</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>13</v>
+      <c r="E64" s="13">
+        <v>94</v>
       </c>
       <c r="F64" s="13">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
       </c>
-      <c r="H64" s="13">
-        <v>0</v>
+      <c r="H64" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17">
-        <v>0</v>
+        <v>122958</v>
       </c>
       <c r="F65" s="17">
-        <v>122958</v>
+        <v>241816</v>
       </c>
       <c r="G65" s="17">
-        <v>241816</v>
+        <v>458462</v>
       </c>
       <c r="H65" s="17">
-        <v>458462</v>
+        <v>11341</v>
       </c>
       <c r="I65" s="17">
-        <v>11341</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>132838</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="18" t="s">
         <v>40</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="16" t="s">
         <v>32</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>33</v>
       </c>
@@ -2046,8 +2046,8 @@
         <v>38</v>
       </c>
       <c r="D68" s="15"/>
-      <c r="E68" s="15" t="s">
-        <v>13</v>
+      <c r="E68" s="15">
+        <v>0</v>
       </c>
       <c r="F68" s="15">
         <v>0</v>
@@ -2055,14 +2055,14 @@
       <c r="G68" s="15">
         <v>0</v>
       </c>
-      <c r="H68" s="15">
-        <v>0</v>
+      <c r="H68" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I68" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="16" t="s">
         <v>34</v>
       </c>
@@ -2070,8 +2070,8 @@
         <v>38</v>
       </c>
       <c r="D69" s="17"/>
-      <c r="E69" s="17" t="s">
-        <v>13</v>
+      <c r="E69" s="17">
+        <v>0</v>
       </c>
       <c r="F69" s="17">
         <v>0</v>
@@ -2086,29 +2086,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
-        <v>0</v>
+        <v>1125186</v>
       </c>
       <c r="F70" s="15">
-        <v>1125186</v>
+        <v>1563539</v>
       </c>
       <c r="G70" s="15">
-        <v>1563539</v>
+        <v>2703782</v>
       </c>
       <c r="H70" s="15">
-        <v>2703782</v>
+        <v>4106603</v>
       </c>
       <c r="I70" s="15">
-        <v>4106603</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5968165</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2118,7 +2118,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2128,7 +2128,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2138,7 +2138,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>41</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2170,7 +2170,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>42</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>11</v>
       </c>
@@ -2193,20 +2193,20 @@
       <c r="E77" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>13</v>
+      <c r="F77" s="11">
+        <v>1203105</v>
       </c>
       <c r="G77" s="11">
-        <v>1203105</v>
-      </c>
-      <c r="H77" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I77" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>14</v>
       </c>
@@ -2223,14 +2223,14 @@
       <c r="G78" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>13</v>
+      <c r="H78" s="13">
+        <v>4836942</v>
       </c>
       <c r="I78" s="13">
-        <v>4836942</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7540220</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>15</v>
       </c>
@@ -2238,23 +2238,23 @@
         <v>43</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>13</v>
+      <c r="E79" s="11">
+        <v>1218809</v>
       </c>
       <c r="F79" s="11">
-        <v>1218809</v>
+        <v>1561345</v>
       </c>
       <c r="G79" s="11">
-        <v>1561345</v>
-      </c>
-      <c r="H79" s="11">
         <v>2061884</v>
       </c>
+      <c r="H79" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I79" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>16</v>
       </c>
@@ -2262,23 +2262,23 @@
         <v>43</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="13" t="s">
-        <v>13</v>
+      <c r="E80" s="13">
+        <v>1449359</v>
       </c>
       <c r="F80" s="13">
-        <v>1449359</v>
+        <v>1947469</v>
       </c>
       <c r="G80" s="13">
-        <v>1947469</v>
-      </c>
-      <c r="H80" s="13">
         <v>2636364</v>
       </c>
+      <c r="H80" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I80" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>17</v>
       </c>
@@ -2295,14 +2295,14 @@
       <c r="G81" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H81" s="11" t="s">
-        <v>13</v>
+      <c r="H81" s="11">
+        <v>5143279</v>
       </c>
       <c r="I81" s="11">
-        <v>5143279</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6990719</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>18</v>
       </c>
@@ -2319,14 +2319,14 @@
       <c r="G82" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>13</v>
+      <c r="H82" s="13">
+        <v>3984279</v>
       </c>
       <c r="I82" s="13">
-        <v>3984279</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5766404</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>19</v>
       </c>
@@ -2343,14 +2343,14 @@
       <c r="G83" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>13</v>
+      <c r="H83" s="11">
+        <v>5767887</v>
       </c>
       <c r="I83" s="11">
-        <v>5767887</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7378407</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>20</v>
       </c>
@@ -2358,23 +2358,23 @@
         <v>43</v>
       </c>
       <c r="D84" s="13"/>
-      <c r="E84" s="13" t="s">
-        <v>13</v>
+      <c r="E84" s="13">
+        <v>694220</v>
       </c>
       <c r="F84" s="13">
-        <v>694220</v>
+        <v>822896</v>
       </c>
       <c r="G84" s="13">
-        <v>822896</v>
+        <v>1133074</v>
       </c>
       <c r="H84" s="13">
-        <v>1133074</v>
+        <v>2671271</v>
       </c>
       <c r="I84" s="13">
-        <v>2671271</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3885496</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>21</v>
       </c>
@@ -2388,17 +2388,17 @@
       <c r="F85" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="11" t="s">
-        <v>13</v>
+      <c r="G85" s="11">
+        <v>0</v>
       </c>
       <c r="H85" s="11">
-        <v>0</v>
+        <v>16010101</v>
       </c>
       <c r="I85" s="11">
-        <v>16010101</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31743590</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>22</v>
       </c>
@@ -2412,17 +2412,17 @@
       <c r="F86" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>13</v>
+      <c r="G86" s="13">
+        <v>0</v>
       </c>
       <c r="H86" s="13">
         <v>0</v>
       </c>
-      <c r="I86" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>23</v>
       </c>
@@ -2430,12 +2430,12 @@
         <v>43</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="11">
+      <c r="E87" s="11">
         <v>1049956</v>
       </c>
+      <c r="F87" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G87" s="11" t="s">
         <v>13</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>44</v>
       </c>
@@ -2458,7 +2458,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>15</v>
       </c>
@@ -2469,20 +2469,20 @@
       <c r="E89" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>13</v>
+      <c r="F89" s="11">
+        <v>1803932</v>
       </c>
       <c r="G89" s="11">
-        <v>1803932</v>
-      </c>
-      <c r="H89" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I89" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>16</v>
       </c>
@@ -2490,23 +2490,23 @@
         <v>43</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
-        <v>13</v>
+      <c r="E90" s="13">
+        <v>1107646</v>
       </c>
       <c r="F90" s="13">
-        <v>1107646</v>
+        <v>2174740</v>
       </c>
       <c r="G90" s="13">
-        <v>2174740</v>
-      </c>
-      <c r="H90" s="13">
         <v>2865975</v>
       </c>
+      <c r="H90" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I90" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>17</v>
       </c>
@@ -2523,14 +2523,14 @@
       <c r="G91" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="11" t="s">
-        <v>13</v>
+      <c r="H91" s="11">
+        <v>3905632</v>
       </c>
       <c r="I91" s="11">
-        <v>3905632</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>19</v>
       </c>
@@ -2547,14 +2547,14 @@
       <c r="G92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H92" s="13" t="s">
-        <v>13</v>
+      <c r="H92" s="13">
+        <v>2590909</v>
       </c>
       <c r="I92" s="13">
-        <v>2590909</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13253317</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>26</v>
       </c>
@@ -2562,23 +2562,23 @@
         <v>43</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>13</v>
+      <c r="E93" s="11">
+        <v>867552</v>
       </c>
       <c r="F93" s="11">
-        <v>867552</v>
+        <v>1395827</v>
       </c>
       <c r="G93" s="11">
-        <v>1395827</v>
-      </c>
-      <c r="H93" s="11">
         <v>3450594</v>
       </c>
+      <c r="H93" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I93" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>27</v>
       </c>
@@ -2595,14 +2595,14 @@
       <c r="G94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="13" t="s">
-        <v>13</v>
+      <c r="H94" s="13">
+        <v>4998853</v>
       </c>
       <c r="I94" s="13">
-        <v>4998853</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>28</v>
       </c>
@@ -2619,14 +2619,14 @@
       <c r="G95" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>29</v>
       </c>
@@ -2634,23 +2634,23 @@
         <v>43</v>
       </c>
       <c r="D96" s="13"/>
-      <c r="E96" s="13" t="s">
-        <v>13</v>
+      <c r="E96" s="13">
+        <v>398305</v>
       </c>
       <c r="F96" s="13">
-        <v>398305</v>
+        <v>0</v>
       </c>
       <c r="G96" s="13">
         <v>0</v>
       </c>
-      <c r="H96" s="13">
-        <v>0</v>
+      <c r="H96" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2660,7 +2660,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2670,7 +2670,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2680,7 +2680,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
         <v>45</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2712,7 +2712,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>46</v>
       </c>
@@ -2724,7 +2724,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2735,20 +2735,20 @@
       <c r="E103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>13</v>
+      <c r="F103" s="11">
+        <v>-4963</v>
       </c>
       <c r="G103" s="11">
-        <v>-4963</v>
-      </c>
-      <c r="H103" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>14</v>
       </c>
@@ -2765,14 +2765,14 @@
       <c r="G104" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H104" s="13" t="s">
-        <v>13</v>
+      <c r="H104" s="13">
+        <v>-552613</v>
       </c>
       <c r="I104" s="13">
-        <v>-552613</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-995089</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>15</v>
       </c>
@@ -2780,23 +2780,23 @@
         <v>38</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
-        <v>13</v>
+      <c r="E105" s="11">
+        <v>-226525</v>
       </c>
       <c r="F105" s="11">
-        <v>-226525</v>
+        <v>-212690</v>
       </c>
       <c r="G105" s="11">
-        <v>-212690</v>
-      </c>
-      <c r="H105" s="11">
         <v>-365918</v>
       </c>
+      <c r="H105" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I105" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>16</v>
       </c>
@@ -2804,23 +2804,23 @@
         <v>38</v>
       </c>
       <c r="D106" s="13"/>
-      <c r="E106" s="13" t="s">
-        <v>13</v>
+      <c r="E106" s="13">
+        <v>-458706</v>
       </c>
       <c r="F106" s="13">
-        <v>-458706</v>
+        <v>-602903</v>
       </c>
       <c r="G106" s="13">
-        <v>-602903</v>
-      </c>
-      <c r="H106" s="13">
         <v>-1063673</v>
       </c>
+      <c r="H106" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I106" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>17</v>
       </c>
@@ -2837,14 +2837,14 @@
       <c r="G107" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="11" t="s">
-        <v>13</v>
+      <c r="H107" s="11">
+        <v>-716462</v>
       </c>
       <c r="I107" s="11">
-        <v>-716462</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-934152</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>18</v>
       </c>
@@ -2861,14 +2861,14 @@
       <c r="G108" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H108" s="13" t="s">
-        <v>13</v>
+      <c r="H108" s="13">
+        <v>-161524</v>
       </c>
       <c r="I108" s="13">
-        <v>-161524</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-256440</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>19</v>
       </c>
@@ -2885,14 +2885,14 @@
       <c r="G109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>13</v>
+      <c r="H109" s="11">
+        <v>-858576</v>
       </c>
       <c r="I109" s="11">
-        <v>-858576</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1160317</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>20</v>
       </c>
@@ -2900,23 +2900,23 @@
         <v>38</v>
       </c>
       <c r="D110" s="13"/>
-      <c r="E110" s="13" t="s">
-        <v>13</v>
+      <c r="E110" s="13">
+        <v>-566</v>
       </c>
       <c r="F110" s="13">
-        <v>-566</v>
+        <v>-401</v>
       </c>
       <c r="G110" s="13">
-        <v>-401</v>
+        <v>-761</v>
       </c>
       <c r="H110" s="13">
-        <v>-761</v>
+        <v>-515</v>
       </c>
       <c r="I110" s="13">
-        <v>-515</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-759</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>21</v>
       </c>
@@ -2930,17 +2930,17 @@
       <c r="F111" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G111" s="11" t="s">
-        <v>13</v>
+      <c r="G111" s="11">
+        <v>0</v>
       </c>
       <c r="H111" s="11">
-        <v>0</v>
+        <v>-874</v>
       </c>
       <c r="I111" s="11">
-        <v>-874</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-897</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>22</v>
       </c>
@@ -2954,17 +2954,17 @@
       <c r="F112" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G112" s="13" t="s">
-        <v>13</v>
+      <c r="G112" s="13">
+        <v>0</v>
       </c>
       <c r="H112" s="13">
         <v>0</v>
       </c>
-      <c r="I112" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>23</v>
       </c>
@@ -2972,12 +2972,12 @@
         <v>38</v>
       </c>
       <c r="D113" s="11"/>
-      <c r="E113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="11">
+      <c r="E113" s="11">
         <v>-15493</v>
       </c>
+      <c r="F113" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G113" s="11" t="s">
         <v>13</v>
       </c>
@@ -2988,29 +2988,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15">
-        <v>0</v>
+        <v>-701290</v>
       </c>
       <c r="F114" s="15">
-        <v>-701290</v>
+        <v>-820957</v>
       </c>
       <c r="G114" s="15">
-        <v>-820957</v>
+        <v>-1430352</v>
       </c>
       <c r="H114" s="15">
-        <v>-1430352</v>
+        <v>-2290564</v>
       </c>
       <c r="I114" s="15">
-        <v>-2290564</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3347654</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>48</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>15</v>
       </c>
@@ -3033,20 +3033,20 @@
       <c r="E116" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="11" t="s">
-        <v>13</v>
+      <c r="F116" s="11">
+        <v>-6258</v>
       </c>
       <c r="G116" s="11">
-        <v>-6258</v>
-      </c>
-      <c r="H116" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>16</v>
       </c>
@@ -3054,23 +3054,23 @@
         <v>38</v>
       </c>
       <c r="D117" s="13"/>
-      <c r="E117" s="13" t="s">
-        <v>13</v>
+      <c r="E117" s="13">
+        <v>-77520</v>
       </c>
       <c r="F117" s="13">
-        <v>-77520</v>
+        <v>-75147</v>
       </c>
       <c r="G117" s="13">
-        <v>-75147</v>
-      </c>
-      <c r="H117" s="13">
         <v>-47619</v>
       </c>
+      <c r="H117" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I117" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>17</v>
       </c>
@@ -3087,14 +3087,14 @@
       <c r="G118" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>13</v>
+      <c r="H118" s="11">
+        <v>-2163</v>
       </c>
       <c r="I118" s="11">
-        <v>-2163</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>19</v>
       </c>
@@ -3111,14 +3111,14 @@
       <c r="G119" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="13" t="s">
-        <v>13</v>
+      <c r="H119" s="13">
+        <v>-22</v>
       </c>
       <c r="I119" s="13">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-51172</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>26</v>
       </c>
@@ -3126,23 +3126,23 @@
         <v>38</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>13</v>
+      <c r="E120" s="11">
+        <v>-28030</v>
       </c>
       <c r="F120" s="11">
-        <v>-28030</v>
+        <v>-52111</v>
       </c>
       <c r="G120" s="11">
-        <v>-52111</v>
-      </c>
-      <c r="H120" s="11">
         <v>-132075</v>
       </c>
+      <c r="H120" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I120" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>27</v>
       </c>
@@ -3159,14 +3159,14 @@
       <c r="G121" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H121" s="13" t="s">
-        <v>13</v>
+      <c r="H121" s="13">
+        <v>-3202</v>
       </c>
       <c r="I121" s="13">
-        <v>-3202</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>28</v>
       </c>
@@ -3183,14 +3183,14 @@
       <c r="G122" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H122" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H122" s="11">
+        <v>0</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>29</v>
       </c>
@@ -3198,45 +3198,45 @@
         <v>38</v>
       </c>
       <c r="D123" s="13"/>
-      <c r="E123" s="13" t="s">
-        <v>13</v>
+      <c r="E123" s="13">
+        <v>-77</v>
       </c>
       <c r="F123" s="13">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="G123" s="13">
         <v>0</v>
       </c>
-      <c r="H123" s="13">
-        <v>0</v>
+      <c r="H123" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I123" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
       <c r="E124" s="17">
-        <v>0</v>
+        <v>-105627</v>
       </c>
       <c r="F124" s="17">
-        <v>-105627</v>
+        <v>-133516</v>
       </c>
       <c r="G124" s="17">
-        <v>-133516</v>
+        <v>-179694</v>
       </c>
       <c r="H124" s="17">
-        <v>-179694</v>
+        <v>-5387</v>
       </c>
       <c r="I124" s="17">
-        <v>-5387</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-51172</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="18" t="s">
         <v>50</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="16" t="s">
         <v>51</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>33</v>
       </c>
@@ -3278,8 +3278,8 @@
         <v>38</v>
       </c>
       <c r="D127" s="15"/>
-      <c r="E127" s="15" t="s">
-        <v>13</v>
+      <c r="E127" s="15">
+        <v>0</v>
       </c>
       <c r="F127" s="15">
         <v>0</v>
@@ -3287,14 +3287,14 @@
       <c r="G127" s="15">
         <v>0</v>
       </c>
-      <c r="H127" s="15">
-        <v>0</v>
+      <c r="H127" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="I127" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="16" t="s">
         <v>34</v>
       </c>
@@ -3302,8 +3302,8 @@
         <v>38</v>
       </c>
       <c r="D128" s="17"/>
-      <c r="E128" s="17" t="s">
-        <v>13</v>
+      <c r="E128" s="17">
+        <v>0</v>
       </c>
       <c r="F128" s="17">
         <v>0</v>
@@ -3318,29 +3318,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>0</v>
+        <v>-806917</v>
       </c>
       <c r="F129" s="15">
-        <v>-806917</v>
+        <v>-954473</v>
       </c>
       <c r="G129" s="15">
-        <v>-954473</v>
+        <v>-1610046</v>
       </c>
       <c r="H129" s="15">
-        <v>-1610046</v>
+        <v>-2295951</v>
       </c>
       <c r="I129" s="15">
-        <v>-2295951</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3398826</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3350,7 +3350,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3360,7 +3360,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3370,7 +3370,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>52</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3402,7 +3402,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>53</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>11</v>
       </c>
@@ -3425,20 +3425,20 @@
       <c r="E136" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="11" t="s">
-        <v>13</v>
+      <c r="F136" s="11">
+        <v>3407</v>
       </c>
       <c r="G136" s="11">
-        <v>3407</v>
-      </c>
-      <c r="H136" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I136" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
         <v>14</v>
       </c>
@@ -3455,14 +3455,14 @@
       <c r="G137" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H137" s="13" t="s">
-        <v>13</v>
+      <c r="H137" s="13">
+        <v>576605</v>
       </c>
       <c r="I137" s="13">
-        <v>576605</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>950989</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>15</v>
       </c>
@@ -3470,23 +3470,23 @@
         <v>38</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11" t="s">
-        <v>13</v>
+      <c r="E138" s="11">
+        <v>111904</v>
       </c>
       <c r="F138" s="11">
-        <v>111904</v>
+        <v>124851</v>
       </c>
       <c r="G138" s="11">
-        <v>124851</v>
-      </c>
-      <c r="H138" s="11">
         <v>244173</v>
       </c>
+      <c r="H138" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I138" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="12" t="s">
         <v>16</v>
       </c>
@@ -3494,23 +3494,23 @@
         <v>38</v>
       </c>
       <c r="D139" s="13"/>
-      <c r="E139" s="13" t="s">
-        <v>13</v>
+      <c r="E139" s="13">
+        <v>176590</v>
       </c>
       <c r="F139" s="13">
-        <v>176590</v>
+        <v>372068</v>
       </c>
       <c r="G139" s="13">
-        <v>372068</v>
-      </c>
-      <c r="H139" s="13">
         <v>570100</v>
       </c>
+      <c r="H139" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I139" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>17</v>
       </c>
@@ -3527,14 +3527,14 @@
       <c r="G140" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H140" s="11" t="s">
-        <v>13</v>
+      <c r="H140" s="11">
+        <v>429008</v>
       </c>
       <c r="I140" s="11">
-        <v>429008</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>558066</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="12" t="s">
         <v>18</v>
       </c>
@@ -3551,14 +3551,14 @@
       <c r="G141" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="13" t="s">
-        <v>13</v>
+      <c r="H141" s="13">
+        <v>141086</v>
       </c>
       <c r="I141" s="13">
-        <v>141086</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>160915</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>19</v>
       </c>
@@ -3575,14 +3575,14 @@
       <c r="G142" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H142" s="11" t="s">
-        <v>13</v>
+      <c r="H142" s="11">
+        <v>653666</v>
       </c>
       <c r="I142" s="11">
-        <v>653666</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>810913</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="12" t="s">
         <v>20</v>
       </c>
@@ -3590,23 +3590,23 @@
         <v>38</v>
       </c>
       <c r="D143" s="13"/>
-      <c r="E143" s="13" t="s">
-        <v>13</v>
+      <c r="E143" s="13">
+        <v>635</v>
       </c>
       <c r="F143" s="13">
-        <v>635</v>
+        <v>440</v>
       </c>
       <c r="G143" s="13">
-        <v>440</v>
+        <v>695</v>
       </c>
       <c r="H143" s="13">
-        <v>695</v>
+        <v>452</v>
       </c>
       <c r="I143" s="13">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>21</v>
       </c>
@@ -3620,17 +3620,17 @@
       <c r="F144" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G144" s="11" t="s">
-        <v>13</v>
+      <c r="G144" s="11">
+        <v>0</v>
       </c>
       <c r="H144" s="11">
-        <v>0</v>
+        <v>3881</v>
       </c>
       <c r="I144" s="11">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="12" t="s">
         <v>22</v>
       </c>
@@ -3644,17 +3644,17 @@
       <c r="F145" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G145" s="13" t="s">
-        <v>13</v>
+      <c r="G145" s="13">
+        <v>0</v>
       </c>
       <c r="H145" s="13">
         <v>0</v>
       </c>
-      <c r="I145" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I145" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>23</v>
       </c>
@@ -3662,12 +3662,12 @@
         <v>38</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" s="11">
+      <c r="E146" s="11">
         <v>11809</v>
       </c>
+      <c r="F146" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G146" s="11" t="s">
         <v>13</v>
       </c>
@@ -3678,29 +3678,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15">
-        <v>0</v>
+        <v>300938</v>
       </c>
       <c r="F147" s="15">
-        <v>300938</v>
+        <v>500766</v>
       </c>
       <c r="G147" s="15">
-        <v>500766</v>
+        <v>814968</v>
       </c>
       <c r="H147" s="15">
-        <v>814968</v>
+        <v>1804698</v>
       </c>
       <c r="I147" s="15">
-        <v>1804698</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2487673</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>55</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>15</v>
       </c>
@@ -3723,20 +3723,20 @@
       <c r="E149" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F149" s="11" t="s">
-        <v>13</v>
+      <c r="F149" s="11">
+        <v>4387</v>
       </c>
       <c r="G149" s="11">
-        <v>4387</v>
-      </c>
-      <c r="H149" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H149" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="I149" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="12" t="s">
         <v>16</v>
       </c>
@@ -3744,23 +3744,23 @@
         <v>38</v>
       </c>
       <c r="D150" s="13"/>
-      <c r="E150" s="13" t="s">
-        <v>13</v>
+      <c r="E150" s="13">
+        <v>4530</v>
       </c>
       <c r="F150" s="13">
-        <v>4530</v>
+        <v>54063</v>
       </c>
       <c r="G150" s="13">
-        <v>54063</v>
-      </c>
-      <c r="H150" s="13">
         <v>32720</v>
       </c>
+      <c r="H150" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="I150" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>17</v>
       </c>
@@ -3777,14 +3777,14 @@
       <c r="G151" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H151" s="11" t="s">
-        <v>13</v>
+      <c r="H151" s="11">
+        <v>403</v>
       </c>
       <c r="I151" s="11">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="12" t="s">
         <v>19</v>
       </c>
@@ -3801,14 +3801,14 @@
       <c r="G152" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H152" s="13" t="s">
-        <v>13</v>
+      <c r="H152" s="13">
+        <v>35</v>
       </c>
       <c r="I152" s="13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81666</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>26</v>
       </c>
@@ -3816,23 +3816,23 @@
         <v>38</v>
       </c>
       <c r="D153" s="11"/>
-      <c r="E153" s="11" t="s">
-        <v>13</v>
+      <c r="E153" s="11">
+        <v>12784</v>
       </c>
       <c r="F153" s="11">
-        <v>12784</v>
+        <v>49850</v>
       </c>
       <c r="G153" s="11">
-        <v>49850</v>
-      </c>
-      <c r="H153" s="11">
         <v>246048</v>
       </c>
+      <c r="H153" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I153" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="12" t="s">
         <v>27</v>
       </c>
@@ -3849,14 +3849,14 @@
       <c r="G154" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H154" s="13" t="s">
-        <v>13</v>
+      <c r="H154" s="13">
+        <v>5516</v>
       </c>
       <c r="I154" s="13">
-        <v>5516</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>28</v>
       </c>
@@ -3873,14 +3873,14 @@
       <c r="G155" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H155" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H155" s="11">
+        <v>0</v>
+      </c>
+      <c r="I155" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="12" t="s">
         <v>29</v>
       </c>
@@ -3888,45 +3888,45 @@
         <v>38</v>
       </c>
       <c r="D156" s="13"/>
-      <c r="E156" s="13" t="s">
-        <v>13</v>
+      <c r="E156" s="13">
+        <v>17</v>
       </c>
       <c r="F156" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G156" s="13">
         <v>0</v>
       </c>
-      <c r="H156" s="13">
-        <v>0</v>
+      <c r="H156" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I156" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
       <c r="E157" s="17">
-        <v>0</v>
+        <v>17331</v>
       </c>
       <c r="F157" s="17">
-        <v>17331</v>
+        <v>108300</v>
       </c>
       <c r="G157" s="17">
-        <v>108300</v>
+        <v>278768</v>
       </c>
       <c r="H157" s="17">
-        <v>278768</v>
+        <v>5954</v>
       </c>
       <c r="I157" s="17">
-        <v>5954</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81666</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="18" t="s">
         <v>57</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="16" t="s">
         <v>58</v>
       </c>
@@ -3960,26 +3960,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15">
-        <v>0</v>
+        <v>318269</v>
       </c>
       <c r="F160" s="15">
-        <v>318269</v>
+        <v>609066</v>
       </c>
       <c r="G160" s="15">
-        <v>609066</v>
+        <v>1093736</v>
       </c>
       <c r="H160" s="15">
-        <v>1093736</v>
+        <v>1810652</v>
       </c>
       <c r="I160" s="15">
-        <v>1810652</v>
+        <v>2569339</v>
       </c>
     </row>
   </sheetData>
